--- a/inst/rawdata/population/Personer_svalbard_1990-2020.xlsx
+++ b/inst/rawdata/population/Personer_svalbard_1990-2020.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chzh\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chzh\OneDrive - Folkehelseinstituttet\GitHub\fhidata\inst\rawdata\population\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FED4154-D178-43B1-B4D3-98214D064647}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D873E97E-BF81-454F-A13A-1DA3002E2259}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5310" yWindow="2835" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4755" yWindow="2145" windowWidth="23535" windowHeight="12915" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Personer" sheetId="2" r:id="rId1"/>
@@ -19,17 +19,63 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>PX-Web Ekstern</author>
+  </authors>
+  <commentList>
+    <comment ref="A4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Rettet 18. oktober 2019.
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+  <si>
+    <t>Longyearbyen og Ny-Ålesund. Registrert bosatt på fastlandet</t>
+  </si>
+  <si>
+    <t>Longyearbyen og Ny-Ålesund. Fra utlandet, ikke bosatt på fastlandet</t>
+  </si>
+  <si>
+    <t>Barentsburg og Pyramiden</t>
+  </si>
+  <si>
+    <t>Hornsund</t>
+  </si>
+  <si>
+    <t>Location</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -53,17 +99,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -365,214 +404,515 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AF5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="Z9" sqref="Z9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="V13" sqref="V13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="9.7109375" customWidth="1"/>
-    <col min="3" max="31" width="9.28515625" customWidth="1"/>
+    <col min="1" max="1" width="40.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="8.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11" style="1" customWidth="1"/>
+    <col min="4" max="33" width="9.28515625" style="1" customWidth="1"/>
+    <col min="34" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1">
         <v>1990</v>
       </c>
-      <c r="B1" s="2">
+      <c r="C1" s="1">
         <v>1991</v>
       </c>
-      <c r="C1" s="2">
+      <c r="D1" s="1">
         <v>1992</v>
       </c>
-      <c r="D1" s="2">
+      <c r="E1" s="1">
         <v>1993</v>
       </c>
-      <c r="E1" s="2">
+      <c r="F1" s="1">
         <v>1994</v>
       </c>
-      <c r="F1" s="2">
+      <c r="G1" s="1">
         <v>1995</v>
       </c>
-      <c r="G1" s="2">
+      <c r="H1" s="1">
         <v>1996</v>
       </c>
-      <c r="H1" s="2">
+      <c r="I1" s="1">
         <v>1997</v>
       </c>
-      <c r="I1" s="2">
+      <c r="J1" s="1">
         <v>1998</v>
       </c>
-      <c r="J1" s="2">
+      <c r="K1" s="1">
         <v>1999</v>
       </c>
-      <c r="K1" s="2">
+      <c r="L1" s="1">
         <v>2000</v>
       </c>
-      <c r="L1" s="2">
+      <c r="M1" s="1">
         <v>2001</v>
       </c>
-      <c r="M1" s="2">
+      <c r="N1" s="1">
         <v>2002</v>
       </c>
-      <c r="N1" s="2">
+      <c r="O1" s="1">
         <v>2003</v>
       </c>
-      <c r="O1" s="2">
+      <c r="P1" s="1">
         <v>2004</v>
       </c>
-      <c r="P1" s="2">
+      <c r="Q1" s="1">
         <v>2005</v>
       </c>
-      <c r="Q1" s="2">
+      <c r="R1" s="1">
         <v>2006</v>
       </c>
-      <c r="R1" s="2">
+      <c r="S1" s="1">
         <v>2007</v>
       </c>
-      <c r="S1" s="2">
+      <c r="T1" s="1">
         <v>2008</v>
       </c>
-      <c r="T1" s="2">
+      <c r="U1" s="1">
         <v>2009</v>
       </c>
-      <c r="U1" s="2">
+      <c r="V1" s="1">
         <v>2010</v>
       </c>
-      <c r="V1" s="2">
+      <c r="W1" s="1">
         <v>2011</v>
       </c>
-      <c r="W1" s="2">
+      <c r="X1" s="1">
         <v>2012</v>
       </c>
-      <c r="X1" s="2">
+      <c r="Y1" s="1">
         <v>2013</v>
       </c>
-      <c r="Y1" s="2">
+      <c r="Z1" s="1">
         <v>2014</v>
       </c>
-      <c r="Z1" s="2">
+      <c r="AA1" s="1">
         <v>2015</v>
       </c>
-      <c r="AA1" s="2">
+      <c r="AB1" s="1">
         <v>2016</v>
       </c>
-      <c r="AB1" s="2">
+      <c r="AC1" s="1">
         <v>2017</v>
       </c>
-      <c r="AC1" s="2">
+      <c r="AD1" s="1">
         <v>2018</v>
       </c>
-      <c r="AD1" s="2">
+      <c r="AE1" s="1">
         <v>2019</v>
       </c>
-      <c r="AE1" s="2">
+      <c r="AF1" s="1">
         <v>2020</v>
       </c>
     </row>
-    <row r="2" spans="1:31" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
-        <v>3544</v>
-      </c>
-      <c r="B2" s="3">
-        <v>3405</v>
-      </c>
-      <c r="C2" s="3">
-        <v>3309</v>
-      </c>
-      <c r="D2" s="3">
-        <v>3017</v>
-      </c>
-      <c r="E2" s="3">
-        <v>2977</v>
-      </c>
-      <c r="F2" s="3">
-        <v>2906</v>
-      </c>
-      <c r="G2" s="3">
-        <v>2844</v>
-      </c>
-      <c r="H2" s="3">
-        <v>2827</v>
-      </c>
-      <c r="I2" s="3">
-        <v>2596</v>
-      </c>
-      <c r="J2" s="3">
-        <v>2423</v>
-      </c>
-      <c r="K2" s="3">
-        <v>2376</v>
-      </c>
-      <c r="L2" s="3">
-        <v>2616</v>
-      </c>
-      <c r="M2" s="3">
-        <v>2529</v>
-      </c>
-      <c r="N2" s="3">
-        <v>2489</v>
-      </c>
-      <c r="O2" s="3">
-        <v>2375</v>
-      </c>
-      <c r="P2" s="3">
-        <v>2400</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>2266</v>
-      </c>
-      <c r="R2" s="3">
-        <v>2338</v>
-      </c>
-      <c r="S2" s="3">
-        <v>2449</v>
-      </c>
-      <c r="T2" s="3">
-        <v>2565</v>
-      </c>
-      <c r="U2" s="3">
-        <v>2481</v>
-      </c>
-      <c r="V2" s="3">
-        <v>2394</v>
-      </c>
-      <c r="W2" s="3">
-        <v>2504</v>
-      </c>
-      <c r="X2" s="3">
-        <v>2637</v>
-      </c>
-      <c r="Y2" s="3">
-        <v>2546</v>
-      </c>
-      <c r="Z2" s="3">
-        <v>2666</v>
-      </c>
-      <c r="AA2" s="3">
-        <v>2654</v>
-      </c>
-      <c r="AB2" s="3">
-        <v>2583</v>
-      </c>
-      <c r="AC2" s="3">
-        <v>2738</v>
-      </c>
-      <c r="AD2" s="3">
-        <v>2726</v>
-      </c>
-      <c r="AE2" s="3">
-        <v>2939</v>
+    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2">
+        <v>1125</v>
+      </c>
+      <c r="C2" s="2">
+        <v>1135</v>
+      </c>
+      <c r="D2" s="2">
+        <v>1148</v>
+      </c>
+      <c r="E2" s="2">
+        <v>1050</v>
+      </c>
+      <c r="F2" s="2">
+        <v>1097</v>
+      </c>
+      <c r="G2" s="2">
+        <v>1218</v>
+      </c>
+      <c r="H2" s="2">
+        <v>1230</v>
+      </c>
+      <c r="I2" s="2">
+        <v>1335</v>
+      </c>
+      <c r="J2" s="2">
+        <v>1438</v>
+      </c>
+      <c r="K2" s="2">
+        <v>1476</v>
+      </c>
+      <c r="L2" s="2">
+        <v>1475</v>
+      </c>
+      <c r="M2" s="2">
+        <v>1704</v>
+      </c>
+      <c r="N2" s="2">
+        <v>1570</v>
+      </c>
+      <c r="O2" s="2">
+        <v>1562</v>
+      </c>
+      <c r="P2" s="2">
+        <v>1581</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>1645</v>
+      </c>
+      <c r="R2" s="2">
+        <v>1721</v>
+      </c>
+      <c r="S2" s="2">
+        <v>1781</v>
+      </c>
+      <c r="T2" s="2">
+        <v>1821</v>
+      </c>
+      <c r="U2" s="2">
+        <v>1792</v>
+      </c>
+      <c r="V2" s="2">
+        <v>1744</v>
+      </c>
+      <c r="W2" s="2">
+        <v>1695</v>
+      </c>
+      <c r="X2" s="2">
+        <v>1738</v>
+      </c>
+      <c r="Y2" s="2">
+        <v>1748</v>
+      </c>
+      <c r="Z2" s="2">
+        <v>1662</v>
+      </c>
+      <c r="AA2" s="2">
+        <v>1692</v>
+      </c>
+      <c r="AB2" s="2">
+        <v>1614</v>
+      </c>
+      <c r="AC2" s="2">
+        <v>1565</v>
+      </c>
+      <c r="AD2" s="2">
+        <v>1555</v>
+      </c>
+      <c r="AE2" s="2">
+        <v>1581</v>
+      </c>
+      <c r="AF2" s="2">
+        <v>1697</v>
       </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="B4" s="1"/>
+    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0</v>
+      </c>
+      <c r="F3" s="2">
+        <v>0</v>
+      </c>
+      <c r="G3" s="2">
+        <v>0</v>
+      </c>
+      <c r="H3" s="2">
+        <v>0</v>
+      </c>
+      <c r="I3" s="2">
+        <v>0</v>
+      </c>
+      <c r="J3" s="2">
+        <v>0</v>
+      </c>
+      <c r="K3" s="2">
+        <v>0</v>
+      </c>
+      <c r="L3" s="2">
+        <v>0</v>
+      </c>
+      <c r="M3" s="2">
+        <v>0</v>
+      </c>
+      <c r="N3" s="2">
+        <v>0</v>
+      </c>
+      <c r="O3" s="2">
+        <v>0</v>
+      </c>
+      <c r="P3" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>0</v>
+      </c>
+      <c r="R3" s="2">
+        <v>0</v>
+      </c>
+      <c r="S3" s="2">
+        <v>0</v>
+      </c>
+      <c r="T3" s="2">
+        <v>0</v>
+      </c>
+      <c r="U3" s="2">
+        <v>293</v>
+      </c>
+      <c r="V3" s="2">
+        <v>308</v>
+      </c>
+      <c r="W3" s="2">
+        <v>322</v>
+      </c>
+      <c r="X3" s="2">
+        <v>377</v>
+      </c>
+      <c r="Y3" s="2">
+        <v>410</v>
+      </c>
+      <c r="Z3" s="2">
+        <v>438</v>
+      </c>
+      <c r="AA3" s="2">
+        <v>493</v>
+      </c>
+      <c r="AB3" s="2">
+        <v>538</v>
+      </c>
+      <c r="AC3" s="2">
+        <v>580</v>
+      </c>
+      <c r="AD3" s="2">
+        <v>659</v>
+      </c>
+      <c r="AE3" s="2">
+        <v>677</v>
+      </c>
+      <c r="AF3" s="2">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2">
+        <v>2407</v>
+      </c>
+      <c r="C4" s="2">
+        <v>2260</v>
+      </c>
+      <c r="D4" s="2">
+        <v>2151</v>
+      </c>
+      <c r="E4" s="2">
+        <v>1958</v>
+      </c>
+      <c r="F4" s="2">
+        <v>1870</v>
+      </c>
+      <c r="G4" s="2">
+        <v>1679</v>
+      </c>
+      <c r="H4" s="2">
+        <v>1604</v>
+      </c>
+      <c r="I4" s="2">
+        <v>1482</v>
+      </c>
+      <c r="J4" s="2">
+        <v>1149</v>
+      </c>
+      <c r="K4" s="2">
+        <v>939</v>
+      </c>
+      <c r="L4" s="2">
+        <v>893</v>
+      </c>
+      <c r="M4" s="2">
+        <v>903</v>
+      </c>
+      <c r="N4" s="2">
+        <v>950</v>
+      </c>
+      <c r="O4" s="2">
+        <v>918</v>
+      </c>
+      <c r="P4" s="2">
+        <v>786</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>747</v>
+      </c>
+      <c r="R4" s="2">
+        <v>535</v>
+      </c>
+      <c r="S4" s="2">
+        <v>550</v>
+      </c>
+      <c r="T4" s="2">
+        <v>620</v>
+      </c>
+      <c r="U4" s="2">
+        <v>470</v>
+      </c>
+      <c r="V4" s="2">
+        <v>420</v>
+      </c>
+      <c r="W4" s="2">
+        <v>370</v>
+      </c>
+      <c r="X4" s="2">
+        <v>380</v>
+      </c>
+      <c r="Y4" s="2">
+        <v>471</v>
+      </c>
+      <c r="Z4" s="2">
+        <v>436</v>
+      </c>
+      <c r="AA4" s="2">
+        <v>471</v>
+      </c>
+      <c r="AB4" s="2">
+        <v>492</v>
+      </c>
+      <c r="AC4" s="2">
+        <v>428</v>
+      </c>
+      <c r="AD4" s="2">
+        <v>514</v>
+      </c>
+      <c r="AE4" s="2">
+        <v>458</v>
+      </c>
+      <c r="AF4" s="2">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2">
+        <v>12</v>
+      </c>
+      <c r="C5" s="2">
+        <v>10</v>
+      </c>
+      <c r="D5" s="2">
+        <v>10</v>
+      </c>
+      <c r="E5" s="2">
+        <v>9</v>
+      </c>
+      <c r="F5" s="2">
+        <v>10</v>
+      </c>
+      <c r="G5" s="2">
+        <v>9</v>
+      </c>
+      <c r="H5" s="2">
+        <v>10</v>
+      </c>
+      <c r="I5" s="2">
+        <v>10</v>
+      </c>
+      <c r="J5" s="2">
+        <v>9</v>
+      </c>
+      <c r="K5" s="2">
+        <v>8</v>
+      </c>
+      <c r="L5" s="2">
+        <v>8</v>
+      </c>
+      <c r="M5" s="2">
+        <v>9</v>
+      </c>
+      <c r="N5" s="2">
+        <v>9</v>
+      </c>
+      <c r="O5" s="2">
+        <v>9</v>
+      </c>
+      <c r="P5" s="2">
+        <v>8</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>8</v>
+      </c>
+      <c r="R5" s="2">
+        <v>10</v>
+      </c>
+      <c r="S5" s="2">
+        <v>7</v>
+      </c>
+      <c r="T5" s="2">
+        <v>8</v>
+      </c>
+      <c r="U5" s="2">
+        <v>10</v>
+      </c>
+      <c r="V5" s="2">
+        <v>9</v>
+      </c>
+      <c r="W5" s="2">
+        <v>7</v>
+      </c>
+      <c r="X5" s="2">
+        <v>9</v>
+      </c>
+      <c r="Y5" s="2">
+        <v>8</v>
+      </c>
+      <c r="Z5" s="2">
+        <v>10</v>
+      </c>
+      <c r="AA5" s="2">
+        <v>10</v>
+      </c>
+      <c r="AB5" s="2">
+        <v>10</v>
+      </c>
+      <c r="AC5" s="2">
+        <v>10</v>
+      </c>
+      <c r="AD5" s="2">
+        <v>10</v>
+      </c>
+      <c r="AE5" s="2">
+        <v>10</v>
+      </c>
+      <c r="AF5" s="2">
+        <v>10</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/inst/rawdata/population/Personer_svalbard_1990-2020.xlsx
+++ b/inst/rawdata/population/Personer_svalbard_1990-2020.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chzh\OneDrive - Folkehelseinstituttet\GitHub\fhidata\inst\rawdata\population\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\riwh\OneDrive - Folkehelseinstituttet\packages\fhidata\inst\rawdata\population\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D873E97E-BF81-454F-A13A-1DA3002E2259}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{D873E97E-BF81-454F-A13A-1DA3002E2259}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{2A031E8B-22D0-4014-9D0B-A824FD09C096}"/>
   <bookViews>
-    <workbookView xWindow="4755" yWindow="2145" windowWidth="23535" windowHeight="12915" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Personer" sheetId="2" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="5">
   <si>
     <t>Longyearbyen og Ny-Ålesund. Registrert bosatt på fastlandet</t>
   </si>
@@ -79,12 +79,18 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -99,10 +105,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -405,22 +413,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AF5"/>
+  <dimension ref="A1:AG5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V13" sqref="V13"/>
+      <selection activeCell="V19" sqref="V19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="40.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="8.42578125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="40.7265625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="8.453125" style="1" customWidth="1"/>
     <col min="3" max="3" width="11" style="1" customWidth="1"/>
-    <col min="4" max="33" width="9.28515625" style="1" customWidth="1"/>
-    <col min="34" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="32" width="9.26953125" style="1" customWidth="1"/>
+    <col min="33" max="33" width="9.26953125" style="3" customWidth="1"/>
+    <col min="34" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -517,8 +526,11 @@
       <c r="AF1" s="1">
         <v>2020</v>
       </c>
+      <c r="AG1" s="3">
+        <v>2021</v>
+      </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -615,8 +627,11 @@
       <c r="AF2" s="2">
         <v>1697</v>
       </c>
+      <c r="AG2" s="4">
+        <v>1697</v>
+      </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -713,8 +728,11 @@
       <c r="AF3" s="2">
         <v>731</v>
       </c>
+      <c r="AG3" s="4">
+        <v>731</v>
+      </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -811,8 +829,11 @@
       <c r="AF4" s="2">
         <v>501</v>
       </c>
+      <c r="AG4" s="4">
+        <v>501</v>
+      </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -907,6 +928,9 @@
         <v>10</v>
       </c>
       <c r="AF5" s="2">
+        <v>10</v>
+      </c>
+      <c r="AG5" s="4">
         <v>10</v>
       </c>
     </row>
